--- a/data/income_statement/2digits/size/74_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/74_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>74-Other professional, scientific and technical activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>74-Other professional, scientific and technical activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,287 +841,327 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>258670.60107</v>
+        <v>273151.09707</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>332599.96339</v>
+        <v>351844.48182</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>404366.792</v>
+        <v>428127.46242</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>444557.86684</v>
+        <v>483028.05062</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>584763.14611</v>
+        <v>628684.26601</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>719415.1450999998</v>
+        <v>769473.9085000001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>924810.17703</v>
+        <v>1003223.74369</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1034637.50566</v>
+        <v>1113201.08702</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1006469.04503</v>
+        <v>1111846.47993</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1713009.90936</v>
+        <v>1805420.00118</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1860696.64076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2048504.61139</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2355530.401</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>236462.69525</v>
+        <v>248313.65013</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>298391.80586</v>
+        <v>314497.69498</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>363533.70987</v>
+        <v>383774.15966</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>398979.7086</v>
+        <v>434084.49015</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>527158.00395</v>
+        <v>564529.77795</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>650241.7988499999</v>
+        <v>693933.8612899999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>843421.0364400001</v>
+        <v>911677.4372</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>957242.05321</v>
+        <v>1026355.722</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>912806.7856099999</v>
+        <v>1006707.66104</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1536079.70295</v>
+        <v>1620930.3127</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1643789.0151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1806731.29733</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2075289.335</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>13142.8686</v>
+        <v>14927.2629</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>22806.98577</v>
+        <v>24976.06547</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>28119.71512</v>
+        <v>30285.41403</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>30354.97784</v>
+        <v>32770.32522999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>42023.10029</v>
+        <v>47084.05712</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>49216.45632</v>
+        <v>53301.06072</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>61481.96295999999</v>
+        <v>68227.681</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>58444.16358</v>
+        <v>64984.19853</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>69279.99911</v>
+        <v>77525.81842</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>148333.18031</v>
+        <v>152864.98807</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>178618.30893</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>199122.17434</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>183600.429</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>9065.037219999998</v>
+        <v>9910.184039999998</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>11401.17176</v>
+        <v>12370.72137</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>12713.36701</v>
+        <v>14067.88873</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>15223.1804</v>
+        <v>16173.23524</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>15582.04187</v>
+        <v>17070.43094</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>19956.88993</v>
+        <v>22238.98649</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>19907.17763</v>
+        <v>23318.62549</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>18951.28887</v>
+        <v>21861.16649</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>24382.26031</v>
+        <v>27613.00047</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>28597.0261</v>
+        <v>31624.70041</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>38289.31673000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>42651.13972</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>96640.637</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1629.35822</v>
+        <v>1773.39151</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1009.65788</v>
+        <v>1268.14023</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1734.75675</v>
+        <v>1764.36956</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2174.05976</v>
+        <v>2516.79001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2501.28302</v>
+        <v>2731.08252</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3501.0958</v>
+        <v>3609.29946</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3658.93449</v>
+        <v>3930.46911</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3205.64243</v>
+        <v>4502.88483</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>3291.10449</v>
+        <v>4184.89418</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>8883.306399999999</v>
+        <v>9376.406530000002</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>7934.05882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>8072.214510000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>23943.905</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1304.51743</v>
+        <v>1444.31442</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>918.61328</v>
+        <v>1148.85283</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1640.99359</v>
+        <v>1670.0064</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1698.03732</v>
+        <v>2000.938</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2337.1285</v>
+        <v>2565.21867</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3335.57611</v>
+        <v>3424.69408</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2915.43158</v>
+        <v>3178.20176</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2683.9598</v>
+        <v>3886.32258</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>2929.31851</v>
+        <v>3584.74135</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>8451.079879999999</v>
+        <v>8943.700769999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>7131.295300000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7234.96261</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>22031.006</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>291.65676</v>
+        <v>295.89306</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>61.0215</v>
+        <v>89.26430000000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>62.03673000000001</v>
+        <v>62.63672999999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>75.62739999999999</v>
+        <v>115.40297</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>97.73715</v>
+        <v>99.44647999999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>61.36635</v>
+        <v>71.66386999999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>273.27863</v>
+        <v>280.53196</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>182.04453</v>
+        <v>213.50181</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>211.88489</v>
+        <v>214.24468</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>218.7546</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>157.96716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>183.14528</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>850.3819999999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>33.18403</v>
@@ -1232,553 +1173,623 @@
         <v>31.72643</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>400.3950400000001</v>
+        <v>400.44904</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>66.41736999999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>104.15334</v>
+        <v>112.94151</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>470.22428</v>
+        <v>471.73539</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>339.6381</v>
+        <v>403.06044</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>149.90109</v>
+        <v>385.90815</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>213.47192</v>
+        <v>213.95116</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>644.79636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>654.10662</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1062.517</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>257041.24285</v>
+        <v>271377.70556</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>331590.30551</v>
+        <v>350576.34159</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>402632.0352500001</v>
+        <v>426363.09286</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>442383.80708</v>
+        <v>480511.26061</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>582261.86309</v>
+        <v>625953.18349</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>715914.0493</v>
+        <v>765864.60904</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>921151.24254</v>
+        <v>999293.2745800001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1031431.86323</v>
+        <v>1108698.20219</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1003177.94054</v>
+        <v>1107661.58575</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1704126.60296</v>
+        <v>1796043.59465</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1852762.58194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2040432.39688</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2331586.496</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>156911.89633</v>
+        <v>164070.24428</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>210428.55574</v>
+        <v>221295.6029</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>254903.01576</v>
+        <v>267583.35699</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>274706.18407</v>
+        <v>300200.25205</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>364345.13112</v>
+        <v>390219.65748</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>425574.0725299999</v>
+        <v>454705.68596</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>579390.4698</v>
+        <v>625725.60511</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>678006.69505</v>
+        <v>721525.0211</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>619643.5629199999</v>
+        <v>684774.6379399999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1128389.71012</v>
+        <v>1186101.90701</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1213053.85939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1325856.9365</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1526511.444</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>11170.83696</v>
+        <v>11434.06449</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>19318.36497</v>
+        <v>21069.95402</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>21748.92804</v>
+        <v>23066.54275</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>23910.55381</v>
+        <v>28432.11916</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>33779.03957</v>
+        <v>37727.38489</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>34093.09168</v>
+        <v>41074.12666</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>36190.60756</v>
+        <v>44367.21379000001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>43934.72076</v>
+        <v>52459.74562</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>57946.53831999999</v>
+        <v>66757.13103</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>105382.58727</v>
+        <v>112171.74332</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>99515.41413999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>112275.4951</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>136827.394</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>47584.30036</v>
+        <v>49760.49843</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>59255.88999</v>
+        <v>62510.35507</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>69570.82198000001</v>
+        <v>75013.9519</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>86566.13333</v>
+        <v>95737.09916999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>93151.6174</v>
+        <v>102130.86787</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>97336.09292</v>
+        <v>104823.01739</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>208612.11141</v>
+        <v>221276.30633</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>241080.24469</v>
+        <v>253052.33732</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>144617.03057</v>
+        <v>155822.62938</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>271226.24993</v>
+        <v>287727.20557</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>276389.57082</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>309435.36426</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>525529.52</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>97782.18579999999</v>
+        <v>102378.80441</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>131215.75591</v>
+        <v>136850.28951</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>162644.09734</v>
+        <v>168456.48445</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>163173.98398</v>
+        <v>174960.12125</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>235268.64882</v>
+        <v>248215.57939</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>293002.9684600001</v>
+        <v>307518.81767</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>332689.85454</v>
+        <v>357574.15099</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>389962.02902</v>
+        <v>412089.12415</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>412878.1809500001</v>
+        <v>456728.28255</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>745721.00154</v>
+        <v>778734.06571</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>825635.5579100001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>891770.6711799999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>853050.3540000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>374.57321</v>
+        <v>496.87695</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>638.5448699999999</v>
+        <v>865.0043000000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>939.1684</v>
+        <v>1046.37789</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1055.51295</v>
+        <v>1070.91247</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>2145.82533</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1141.91947</v>
+        <v>1289.72424</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1897.89629</v>
+        <v>2507.934</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3029.70058</v>
+        <v>3923.81401</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4201.81308</v>
+        <v>5466.59498</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>6059.87138</v>
+        <v>7468.89241</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>11513.31652</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12375.40596</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>11104.176</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>100129.34652</v>
+        <v>107307.46128</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>121161.74977</v>
+        <v>129280.73869</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>147729.01949</v>
+        <v>158779.73587</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>167677.62301</v>
+        <v>180311.00856</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>217916.73197</v>
+        <v>235733.52601</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>290339.97677</v>
+        <v>311158.92308</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>341760.77274</v>
+        <v>373567.66947</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>353425.16818</v>
+        <v>387173.18109</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>383534.37762</v>
+        <v>422886.94781</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>575736.89284</v>
+        <v>609941.68764</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>639708.7225499999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>714575.4603799998</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>805075.052</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>92600.08055</v>
+        <v>103273.76391</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>106556.83997</v>
+        <v>116774.03291</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>133438.09742</v>
+        <v>144305.22446</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>150187.7268</v>
+        <v>168409.21969</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>197817.28598</v>
+        <v>216450.46034</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>253084.29317</v>
+        <v>275619.1289</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>303146.99593</v>
+        <v>333931.60537</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>323864.0395499999</v>
+        <v>357896.58502</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>359447.28288</v>
+        <v>400919.60764</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>531961.5129099999</v>
+        <v>566016.21413</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>604115.59034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>672264.4332800001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>709328.372</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>470.49521</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>437.43936</v>
+        <v>447.53727</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>198.87465</v>
+        <v>201.15295</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>551.92529</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2084.31501</v>
+        <v>2104.73581</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1510.36912</v>
+        <v>1513.26128</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3626.00959</v>
+        <v>3771.933120000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2337.55989</v>
+        <v>2653.0317</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1850.28778</v>
+        <v>1873.27967</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2137.2043</v>
+        <v>2137.84667</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1960.34657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2200.38715</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3677.317</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>8518.1906</v>
+        <v>9621.569739999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>10591.95522</v>
+        <v>11668.67735</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>11094.55373</v>
+        <v>12340.16964</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>13499.59013</v>
+        <v>14638.01203</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>17149.26372</v>
+        <v>18811.45622</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>23170.22497</v>
+        <v>25116.24713</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>34016.66411</v>
+        <v>38152.94889</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>31599.62084</v>
+        <v>34414.02106</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>34600.51271</v>
+        <v>38834.28414</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>55492.67812</v>
+        <v>58215.02853</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>64680.09196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>71544.03742000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>68331.63400000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>83611.39473999999</v>
+        <v>93181.69895999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>95527.44538999999</v>
+        <v>104657.81829</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>122144.66904</v>
+        <v>131763.90187</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>136136.21138</v>
+        <v>153219.28237</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>178583.70725</v>
+        <v>195534.26831</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>228403.69908</v>
+        <v>248989.62049</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>265504.32223</v>
+        <v>292006.72336</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>289926.85882</v>
+        <v>320829.53226</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>322996.48239</v>
+        <v>360212.04383</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>474331.63049</v>
+        <v>505663.33893</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>537475.15181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>598520.0087100001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>637319.421</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>7529.26597</v>
+        <v>4033.69737</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>14604.9098</v>
+        <v>12506.70578</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>14290.92207</v>
+        <v>14474.51141</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>17489.89621</v>
+        <v>11901.78887</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>20099.44599</v>
+        <v>19283.06567</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>37255.6836</v>
+        <v>35539.79418</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>38613.77681</v>
+        <v>39636.0641</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>29561.12863</v>
+        <v>29276.59607</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>24087.09474</v>
+        <v>21967.34017</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>43775.37993</v>
+        <v>43925.47351</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>35593.13221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>42311.0271</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>95746.67999999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3141.19282</v>
+        <v>29963.91803</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2592.56186</v>
+        <v>24737.48277</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4649.70848</v>
+        <v>48924.39000000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2662.046440000001</v>
+        <v>26091.45047</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5037.71975</v>
+        <v>10007.34503</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4254.61328</v>
+        <v>7347.24121</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>7743.25145</v>
+        <v>25646.67361</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>7953.7865</v>
+        <v>25842.07114</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>9116.129939999999</v>
+        <v>30041.62441</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>37222.9586</v>
+        <v>123631.39716</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>29655.91505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>104041.56746</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>127644.675</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1.43588</v>
+        <v>12044.58982</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>5.89845</v>
+        <v>12686.15215</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1.08223</v>
+        <v>15675.48821</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>65.62027999999999</v>
+        <v>8684.395699999999</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>37.19092</v>
@@ -1787,28 +1798,33 @@
         <v>43.79315</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1.68694</v>
+        <v>97.78214999999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>2407.31188</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>39.9358</v>
+        <v>8251.05394</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>226.49552</v>
+        <v>3180.30948</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>196.71722</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>46678.19457</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>8361.233</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>126.9491</v>
+        <v>127.79711</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>249.82243</v>
@@ -1817,10 +1833,10 @@
         <v>63.05885</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>383.12978</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1.84553</v>
+        <v>660.90088</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
@@ -1829,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>193.62136</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0.00444</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1022.93384</v>
+        <v>2745.93738</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>554.70713</v>
+        <v>2105.33127</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>797.3236100000001</v>
+        <v>4892.427310000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>557.5059399999999</v>
+        <v>7821.253679999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>884.14651</v>
+        <v>1451.87713</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1090.0839</v>
+        <v>1821.12999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1062.96976</v>
+        <v>2614.78926</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1280.78326</v>
+        <v>2865.73821</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1440.53608</v>
+        <v>4110.387549999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4859.55127</v>
+        <v>7038.65081</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>5535.04054</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>9118.827940000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6970.297</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>196.48667</v>
@@ -1892,37 +1918,42 @@
         <v>214.0625</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>137.88078</v>
+        <v>209.91242</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>172.99384</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>54.254</v>
+        <v>61.79499000000001</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>143.4039</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>76.27961000000001</v>
+        <v>428.34792</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>119.7699</v>
+        <v>273.18045</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>100.0366</v>
+        <v>632.4175300000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>640.05044</v>
+        <v>5840.05044</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>862.4786000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>833.0899900000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1812.242</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>39.97409</v>
@@ -1949,100 +1980,115 @@
         <v>295.84231</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>40.76326</v>
+        <v>50.68331</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>470.18835</v>
+        <v>738.3921000000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>235.20165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>305.89003</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>863.704</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>109.2415</v>
+        <v>583.52394</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>95.45986000000001</v>
+        <v>744.5031799999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>73.79401999999999</v>
+        <v>150.40034</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>64.82863</v>
+        <v>229.65041</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>130.60907</v>
+        <v>140.05464</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>72.78794000000001</v>
+        <v>92.33234999999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>82.50316000000001</v>
+        <v>105.06806</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>75.35772999999999</v>
+        <v>258.57419</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>96.01217</v>
+        <v>268.31085</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>500.97941</v>
+        <v>21140.44919</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1302.9672</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1482.72782</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3602.278</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1220.9967</v>
+        <v>8179.101720000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1055.19927</v>
+        <v>7049.26625</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2126.75989</v>
+        <v>26205.91986</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1073.33005</v>
+        <v>4655.43108</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2508.56428</v>
+        <v>5847.0893</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1901.07805</v>
+        <v>4018.23242</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4673.99924</v>
+        <v>19176.14399</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3911.9145</v>
+        <v>14660.52527</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4305.840869999999</v>
+        <v>12688.91763</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>25282.23759</v>
+        <v>78171.50662999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>15364.00842</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>37507.13585</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>76699.46799999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0.06534999999999999</v>
+        <v>25.39202</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>11.29545</v>
@@ -2063,22 +2109,27 @@
         <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>39.60335</v>
+        <v>198.37175</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0</v>
+        <v>75.38241000000001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>8.125</v>
+        <v>24.23786</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.01103</v>
@@ -2090,7 +2141,7 @@
         <v>0.33423</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>0</v>
+        <v>62.99495</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>0</v>
@@ -2102,7 +2153,7 @@
         <v>15.01611</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>43.81780999999999</v>
+        <v>80.43752999999998</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>40.01417</v>
@@ -2113,140 +2164,160 @@
       <c r="M34" s="48" t="n">
         <v>40.43297999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>6.313</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>423.0986600000001</v>
+        <v>6021.104249999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>365.20021</v>
+        <v>1636.13298</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1443.45832</v>
+        <v>1720.83223</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>711.0784000000001</v>
+        <v>4064.91173</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1322.10746</v>
+        <v>1709.43519</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>950.93348</v>
+        <v>1175.81654</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1583.60782</v>
+        <v>2962.33731</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2186.69764</v>
+        <v>4608.468190000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3052.99099</v>
+        <v>3924.457019999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5212.05811</v>
+        <v>7474.52774</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>6119.064</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>8075.26384</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>29329.14</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1963.87838</v>
+        <v>12759.8523</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2214.31639</v>
+        <v>8008.14986</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3350.69096</v>
+        <v>9164.343280000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2413.21213</v>
+        <v>18716.25744</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3024.31477</v>
+        <v>18180.94886</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3352.51859</v>
+        <v>7591.8089</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6605.72648</v>
+        <v>21422.67112</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4644.95899</v>
+        <v>28152.62754</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>6020.8239</v>
+        <v>16787.45109</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>24859.6309</v>
+        <v>90272.55895999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>14687.34193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>50498.71197</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>117744.256</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>84.44751999999998</v>
+        <v>89.4153</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>238.96156</v>
+        <v>239.20456</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>154.25498</v>
+        <v>169.94112</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>128.30448</v>
+        <v>139.40128</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>143.63601</v>
+        <v>164.2887</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>220.6967</v>
+        <v>225.59513</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>838.4839900000001</v>
+        <v>875.55889</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>93.60529</v>
+        <v>102.82206</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>288.45532</v>
+        <v>366.75953</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>1699.5705</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>877.80363</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>908.1966499999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1923.16</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>43.53693</v>
+        <v>78.70689</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>300.48439</v>
+        <v>405.28371</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>207.37749</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>501.57478</v>
+        <v>591.25478</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>357.65149</v>
@@ -2258,100 +2329,115 @@
         <v>1617.74419</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1244.27041</v>
+        <v>1853.30131</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>698.49724</v>
+        <v>865.9139800000002</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2259.06269</v>
+        <v>2265.49299</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2261.58596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2272.0342</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3407.471</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>23.43671</v>
+        <v>187.08392</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>4.93412</v>
+        <v>52.59015</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1.25761</v>
+        <v>84.7368</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>123.78238</v>
+        <v>132.94136</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>24.82437</v>
+        <v>37.35637000000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>6.926709999999999</v>
+        <v>6.92671</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.06695999999999999</v>
+        <v>0.46421</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>14.6528</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>1576.43214</v>
+        <v>1631.06199</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>84.70586999999999</v>
+        <v>563.7623899999999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>467.42859</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>467.96872</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>113.536</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1231.12279</v>
+        <v>6600.156499999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1194.4368</v>
+        <v>6389.78818</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1769.33063</v>
+        <v>7335.3059</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1213.06874</v>
+        <v>17094.52764</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1652.94422</v>
+        <v>16610.74706</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2071.57209</v>
+        <v>5918.97943</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3744.64527</v>
+        <v>17433.50714</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2174.04413</v>
+        <v>24724.36047</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2757.67205</v>
+        <v>12952.51979</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>19466.55271</v>
+        <v>84188.32301000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>9918.37041</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>45061.33136</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>87797.96400000001</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2.72301</v>
@@ -2375,22 +2461,27 @@
         <v>8.071709999999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>6.716279999999999</v>
+        <v>138.00178</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>4.04273</v>
+        <v>181.42236</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>0</v>
+        <v>0.00379</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>0.63634</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1.94759</v>
@@ -2425,248 +2516,283 @@
       <c r="M42" s="48" t="n">
         <v>14.11687</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>576.66383</v>
+        <v>5799.81909</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>475.49952</v>
+        <v>921.2832599999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1125.87925</v>
+        <v>1274.39097</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>443.58325</v>
+        <v>755.2338800000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>845.25868</v>
+        <v>1010.90524</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>715.69143</v>
+        <v>1102.67597</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>396.7143600000001</v>
+        <v>1487.32498</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1111.67008</v>
+        <v>1319.48912</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>694.88205</v>
+        <v>788.93107</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1348.18795</v>
+        <v>1553.8551</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1147.40013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1774.42783</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>24502.125</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2642.09797</v>
+        <v>3567.54342</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1888.23141</v>
+        <v>2764.58423</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2326.09487</v>
+        <v>5596.59199</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2957.0166</v>
+        <v>4507.84926</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3215.9483</v>
+        <v>8775.368390000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3756.60114</v>
+        <v>8457.575190000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4784.62102</v>
+        <v>41829.95434</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6004.48493</v>
+        <v>57410.70751000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>6351.22479</v>
+        <v>20863.56072</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>14082.09784</v>
+        <v>36982.09091</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>16908.09111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>39185.95633</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>48823.024</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2529.98722</v>
+        <v>3455.43267</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1684.94009</v>
+        <v>2555.58481</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2185.02901</v>
+        <v>5455.526130000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2759.37312</v>
+        <v>4302.7013</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3090.15339</v>
+        <v>5489.50799</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3664.58734</v>
+        <v>5709.961310000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4596.504019999999</v>
+        <v>8204.01585</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>5836.037880000001</v>
+        <v>10243.4947</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>6007.203939999999</v>
+        <v>9384.578579999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>13433.93389</v>
+        <v>20064.55574</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>16308.33582</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>27017.63047</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>37305.273</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>112.11075</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>203.29132</v>
+        <v>208.99942</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>141.06586</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>197.64348</v>
+        <v>205.14796</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>125.79491</v>
+        <v>3285.8604</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>92.0138</v>
+        <v>2747.61388</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>188.117</v>
+        <v>33625.93849</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>168.44705</v>
+        <v>47167.21281</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>344.02085</v>
+        <v>11478.98214</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>648.16395</v>
+        <v>16917.53517</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>599.7552900000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>12168.32586</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>11517.751</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>6064.482440000001</v>
+        <v>17670.21968</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>13094.92386</v>
+        <v>26471.45446</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>13263.84472</v>
+        <v>48637.96614</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>14781.71392</v>
+        <v>14769.13264</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>18896.90267</v>
+        <v>2334.093449999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>34401.17715</v>
+        <v>26837.6513</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>34966.68076</v>
+        <v>2030.11225</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>26865.47121</v>
+        <v>-30444.66783999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>20831.17599</v>
+        <v>14357.95277</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>42056.60979</v>
+        <v>40302.2208</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>33653.61422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>56667.92625999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>56824.075</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2773.69202</v>
+        <v>3824.63124</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2193.63796</v>
+        <v>2511.59221</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3101.37262</v>
+        <v>7605.211060000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2789.82912</v>
+        <v>3747.52134</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4066.29058</v>
+        <v>4682.54215</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5987.0697</v>
+        <v>9865.926780000002</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5980.22301</v>
+        <v>7666.73443</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>8569.238670000001</v>
+        <v>9773.741059999998</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>9336.431689999999</v>
+        <v>11819.85005</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>17650.06845</v>
+        <v>84747.80733999998</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>20523.58355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>24155.01447</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>34537.792</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>12.62734</v>
+        <v>28.01908</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>14.40454</v>
@@ -2675,115 +2801,130 @@
         <v>14.059</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>61.10988</v>
+        <v>66.14041999999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>106.66072</v>
+        <v>118.20547</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>84.90940999999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>63.20322</v>
+        <v>64.20322</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>52.15817</v>
+        <v>52.40542</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>151.925</v>
+        <v>298.54218</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1875.08389</v>
+        <v>1878.66165</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>107.81623</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>108.83959</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2318.389</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2761.06468</v>
+        <v>3796.61216</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2179.23342</v>
+        <v>2497.18767</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3087.31362</v>
+        <v>7591.152059999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2728.71924</v>
+        <v>3681.38092</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3959.62986</v>
+        <v>4564.336679999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>5902.160290000001</v>
+        <v>9781.017370000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5917.01979</v>
+        <v>7602.53121</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>8517.0805</v>
+        <v>9721.335640000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>9184.50669</v>
+        <v>11521.30787</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>15774.98456</v>
+        <v>82869.14569</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>20415.76732</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>24046.17488</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>32219.403</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3022.018230000001</v>
+        <v>4484.24224</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3655.1391</v>
+        <v>4262.97014</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>26340.89028</v>
+        <v>45861.37767</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5342.39174</v>
+        <v>6423.28499</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4898.330889999999</v>
+        <v>6378.805230000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>26609.80682</v>
+        <v>28280.33492</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6424.391360000001</v>
+        <v>7729.957600000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>33020.42868</v>
+        <v>37823.28488</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>11239.23263</v>
+        <v>13529.1224</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>45743.20140999999</v>
+        <v>48196.7398</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>18764.30508</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>21518.72561</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>37107.107</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>100.20622</v>
+        <v>100.66867</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>13.3856</v>
@@ -2792,226 +2933,254 @@
         <v>18.51442</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>194.05727</v>
+        <v>194.49123</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>140.72455</v>
+        <v>307.62587</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>80.62313</v>
+        <v>94.82459</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>82.52095</v>
+        <v>84.16261999999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>147.7949</v>
+        <v>151.95912</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>185.47099</v>
+        <v>191.26865</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>281.76938</v>
+        <v>287.04793</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>112.44763</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>112.55003</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>256.221</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>227.75702</v>
+        <v>275.97146</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>302.14713</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>389.2114300000001</v>
+        <v>405.26806</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>446.22512</v>
+        <v>452.70601</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>180.37227</v>
+        <v>631.00554</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>196.07134</v>
+        <v>198.46519</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>373.83335</v>
+        <v>466.49428</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>709.86437</v>
+        <v>774.79651</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>298.52563</v>
+        <v>520.80727</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>951.2740600000001</v>
+        <v>975.93552</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>721.11847</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>739.3371999999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2989.359</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2694.05499</v>
+        <v>4107.60211</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3339.60637</v>
+        <v>3947.43741</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>25933.16443</v>
+        <v>45437.59519</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4702.10935</v>
+        <v>5776.08775</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4577.23407</v>
+        <v>5440.173819999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>26333.11235</v>
+        <v>27987.04514</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5968.037060000001</v>
+        <v>7179.3007</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>32162.76941</v>
+        <v>36896.52925</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>10755.23601</v>
+        <v>12817.04648</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>44510.15797</v>
+        <v>46933.75635</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>17930.73898</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>20666.83838</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>33861.527</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5816.15623</v>
+        <v>17010.60868</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>11633.42272</v>
+        <v>24720.07653</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-9975.672940000002</v>
+        <v>10381.79953</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>12229.1513</v>
+        <v>12093.36899</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>18064.86236</v>
+        <v>637.8303699999992</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>13778.44003</v>
+        <v>8423.243159999998</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>34522.51241</v>
+        <v>1966.889079999998</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2414.281199999997</v>
+        <v>-58494.21165999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>18928.37505</v>
+        <v>12648.68042</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>13963.47683</v>
+        <v>76853.28834000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>35412.89269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>59304.21512</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>54254.76</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4150.9819</v>
+        <v>4912.56479</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4838.867490000001</v>
+        <v>5594.8</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>6101.716609999999</v>
+        <v>10473.40914</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6653.16425</v>
+        <v>7744.186569999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>9334.612120000002</v>
+        <v>10450.86522</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>13151.44529</v>
+        <v>14089.37082</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>14587.98518</v>
+        <v>16686.03765</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>14859.35559</v>
+        <v>17114.88912</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>14595.1184</v>
+        <v>16792.80183</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>25296.34598</v>
+        <v>28456.27281</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>29597.7089</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>34159.31111</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>45620.606</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1665.174329999999</v>
+        <v>12098.04389</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>6794.55523</v>
+        <v>19125.27653</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-16077.38955</v>
+        <v>-91.60960999999941</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5575.98705</v>
+        <v>4349.18242</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>8730.250239999999</v>
+        <v>-9813.03485</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>626.9947400000002</v>
+        <v>-5666.12766</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>19934.52723</v>
+        <v>-14719.14857</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-12445.07439</v>
+        <v>-75609.10078000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>4333.25665</v>
+        <v>-4144.121409999998</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-11332.86915</v>
+        <v>48397.01553</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5815.183790000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>25144.90401</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>8634.154</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1994</v>
+        <v>2042</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2170</v>
+        <v>2231</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2414</v>
+        <v>2490</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2639</v>
+        <v>2741</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3244</v>
+        <v>3374</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3622</v>
+        <v>3765</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3878</v>
+        <v>4074</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4157</v>
+        <v>4388</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>4614</v>
+        <v>4891</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>5035</v>
+        <v>5307</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>5188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5674</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>